--- a/QuizBeeDB.xlsx
+++ b/QuizBeeDB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doyou\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\QuizBee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1213D4-23F9-4278-B058-51C0A4220587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="3" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="147">
   <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,11 +665,35 @@
     <t>notice_day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>img_ques</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_ans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1305,6 +1328,29 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1383,38 +1429,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1753,56 +1776,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.4140625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1822,7 +1845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
@@ -1842,7 +1865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1856,7 +1879,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1870,7 +1893,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1884,7 +1907,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1898,7 +1921,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
@@ -1912,7 +1935,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
@@ -1928,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
@@ -1944,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
@@ -1960,168 +1983,168 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="37" t="s">
+    <row r="16" spans="3:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="18" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-    </row>
-    <row r="19" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-    </row>
-    <row r="21" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-    </row>
-    <row r="23" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-    </row>
-    <row r="24" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-    </row>
-    <row r="25" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-    </row>
-    <row r="26" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-    </row>
-    <row r="27" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
-    </row>
-    <row r="28" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
-    </row>
-    <row r="30" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-    </row>
-    <row r="31" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
-    </row>
-    <row r="32" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42"/>
-    </row>
-    <row r="33" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
-    </row>
-    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42"/>
-    </row>
-    <row r="35" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="42"/>
-    </row>
-    <row r="36" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="45"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+    </row>
+    <row r="19" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+    </row>
+    <row r="21" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+    </row>
+    <row r="23" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+    </row>
+    <row r="27" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+    </row>
+    <row r="28" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
+    </row>
+    <row r="31" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+    </row>
+    <row r="33" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+    </row>
+    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+    </row>
+    <row r="35" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+    </row>
+    <row r="36" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2136,61 +2159,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:I39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.9140625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" customWidth="1"/>
-    <col min="7" max="7" width="9.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.08203125" customWidth="1"/>
-    <col min="12" max="14" width="8.83203125" customWidth="1"/>
-    <col min="15" max="15" width="9.58203125" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-    </row>
-    <row r="5" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+    </row>
+    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2210,7 +2233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D7" s="24" t="s">
         <v>92</v>
       </c>
@@ -2230,25 +2253,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="D8" s="70" t="s">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="73"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D9" s="14" t="s">
         <v>93</v>
       </c>
@@ -2264,7 +2287,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D10" s="14" t="s">
         <v>110</v>
       </c>
@@ -2280,288 +2303,320 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D11" s="14" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D12" s="14" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35">
+        <v>145</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="D13" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18">
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35">
         <v>1</v>
       </c>
-      <c r="J13" s="74" t="s">
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="K13" s="78"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="D14" s="79" t="s">
+      <c r="K15" s="79"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="80" t="s">
+      <c r="G16" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81">
+      <c r="H16" s="45"/>
+      <c r="I16" s="46">
         <v>0</v>
       </c>
-      <c r="J14" s="75"/>
-      <c r="K14" s="82"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="D15" s="79" t="s">
+      <c r="J16" s="41"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D17" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="82"/>
-    </row>
-    <row r="16" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D16" s="15" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="47"/>
+    </row>
+    <row r="18" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20" t="s">
+      <c r="H18" s="19"/>
+      <c r="I18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-    </row>
-    <row r="19" spans="4:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D20" s="58" t="s">
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+    </row>
+    <row r="21" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D22" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-    </row>
-    <row r="22" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-    </row>
-    <row r="23" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-    </row>
-    <row r="24" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-    </row>
-    <row r="25" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-    </row>
-    <row r="26" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
-    </row>
-    <row r="27" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
-    </row>
-    <row r="28" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
-    </row>
-    <row r="29" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
-    </row>
-    <row r="30" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
-    </row>
-    <row r="31" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="63"/>
-    </row>
-    <row r="32" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
-    </row>
-    <row r="33" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
-    </row>
-    <row r="34" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
-    </row>
-    <row r="35" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
-    </row>
-    <row r="36" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="63"/>
-    </row>
-    <row r="37" spans="4:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="63"/>
-    </row>
-    <row r="38" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="4:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D39" s="64"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="66"/>
-    </row>
-    <row r="40" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="74"/>
+    </row>
+    <row r="24" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="74"/>
+    </row>
+    <row r="25" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="74"/>
+    </row>
+    <row r="26" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="74"/>
+    </row>
+    <row r="27" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="74"/>
+    </row>
+    <row r="28" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="74"/>
+    </row>
+    <row r="29" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="74"/>
+    </row>
+    <row r="30" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="74"/>
+    </row>
+    <row r="31" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="74"/>
+    </row>
+    <row r="32" spans="4:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="74"/>
+    </row>
+    <row r="33" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="72"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="74"/>
+    </row>
+    <row r="34" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="72"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="74"/>
+    </row>
+    <row r="35" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="72"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="74"/>
+    </row>
+    <row r="36" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="72"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="74"/>
+    </row>
+    <row r="37" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="72"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="74"/>
+    </row>
+    <row r="38" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="72"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="74"/>
+    </row>
+    <row r="39" spans="4:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="72"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="74"/>
+    </row>
+    <row r="40" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="72"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="74"/>
+    </row>
+    <row r="41" spans="4:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="75"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="77"/>
+    </row>
+    <row r="42" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="D20:I39"/>
-    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D22:I41"/>
+    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2570,56 +2625,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.4140625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2639,7 +2694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>58</v>
       </c>
@@ -2659,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -2677,7 +2732,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>59</v>
       </c>
@@ -2693,7 +2748,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>60</v>
       </c>
@@ -2709,7 +2764,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
@@ -2725,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
@@ -2739,7 +2794,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>63</v>
       </c>
@@ -2755,7 +2810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
         <v>79</v>
       </c>
@@ -2769,120 +2824,120 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="58" t="s">
+    <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="66"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2896,56 +2951,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.4140625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
-    </row>
-    <row r="5" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+    </row>
+    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2965,7 +3020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>47</v>
       </c>
@@ -2985,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3003,7 +3058,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
@@ -3019,7 +3074,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
@@ -3033,7 +3088,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>126</v>
       </c>
@@ -3049,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
@@ -3068,7 +3123,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>73</v>
       </c>
@@ -3082,113 +3137,113 @@
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="15" spans="3:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="3:11" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="58" t="s">
+    <row r="15" spans="3:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="66"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3203,56 +3258,56 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D7E422-E148-4B4B-81EF-A18D1E2A7056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" customWidth="1"/>
-    <col min="7" max="7" width="15.08203125" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3272,7 +3327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="24" t="s">
         <v>98</v>
       </c>
@@ -3288,7 +3343,7 @@
       </c>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
@@ -3304,7 +3359,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
@@ -3320,7 +3375,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>102</v>
       </c>
@@ -3334,7 +3389,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>104</v>
       </c>
@@ -3348,7 +3403,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>117</v>
       </c>
@@ -3362,7 +3417,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>118</v>
       </c>
@@ -3376,7 +3431,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="9" t="s">
         <v>105</v>
       </c>
@@ -3390,120 +3445,120 @@
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="16" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="58" t="s">
+    <row r="16" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63"/>
-    </row>
-    <row r="30" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="72"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+    </row>
+    <row r="30" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3518,56 +3573,56 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.4140625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
-    </row>
-    <row r="3" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+    </row>
+    <row r="3" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-    </row>
-    <row r="5" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+    </row>
+    <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
@@ -3587,7 +3642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>129</v>
       </c>
@@ -3607,7 +3662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="14" t="s">
         <v>68</v>
       </c>
@@ -3625,7 +3680,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="14" t="s">
         <v>135</v>
       </c>
@@ -3641,7 +3696,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
         <v>137</v>
       </c>
@@ -3657,7 +3712,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
         <v>139</v>
       </c>
@@ -3673,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="30" t="s">
         <v>140</v>
       </c>
@@ -3691,128 +3746,128 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="58" t="s">
+    <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
-    </row>
-    <row r="16" spans="3:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="3:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="66"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
+    </row>
+    <row r="16" spans="3:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
